--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_47.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_47.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_0</t>
+          <t>model_1_47_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996649262529311</v>
+        <v>0.9476178513263933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8239299204553263</v>
+        <v>0.721052815908221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8139873819062811</v>
+        <v>0.778826528017516</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998860447687611</v>
+        <v>0.95005090823257</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001394753417582047</v>
+        <v>0.168161740844422</v>
       </c>
       <c r="G2" t="n">
-        <v>1.177381432643402</v>
+        <v>1.865321104455405</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6653563492899319</v>
+        <v>0.7911246849065974</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005098560507637022</v>
+        <v>0.1845703330551202</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09902050923758286</v>
+        <v>0.91775989216289</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03734639765200985</v>
+        <v>0.4100752868003898</v>
       </c>
       <c r="L2" t="n">
-        <v>1.021444719812408</v>
+        <v>0.9286711166997696</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03793456608232777</v>
+        <v>0.4165335626426002</v>
       </c>
       <c r="N2" t="n">
-        <v>143.1500752818458</v>
+        <v>37.56565803919449</v>
       </c>
       <c r="O2" t="n">
-        <v>284.4852478250622</v>
+        <v>74.53024162742031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_1</t>
+          <t>model_1_47_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997469041433408</v>
+        <v>0.9476299432359406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8228315572288807</v>
+        <v>0.7210488973630061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8143433801127977</v>
+        <v>0.7787904403876955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998376170026646</v>
+        <v>0.9503249240234748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001053518260201586</v>
+        <v>0.1681229223421057</v>
       </c>
       <c r="G3" t="n">
-        <v>1.184726192596142</v>
+        <v>1.8653473077853</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6640829643471837</v>
+        <v>0.7912537682659841</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007265305228419376</v>
+        <v>0.1835577984123453</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08281334603659636</v>
+        <v>0.9213911640151775</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03245794602561268</v>
+        <v>0.4100279531228397</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01619813482619</v>
+        <v>0.9286875822787277</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03296912622947368</v>
+        <v>0.4164854835069451</v>
       </c>
       <c r="N3" t="n">
-        <v>143.7112399839567</v>
+        <v>37.56611977303773</v>
       </c>
       <c r="O3" t="n">
-        <v>285.0464125271732</v>
+        <v>74.53070336126355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_3</t>
+          <t>model_1_47_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997489614622102</v>
+        <v>0.9476409075305037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8228310252941874</v>
+        <v>0.7210448999215433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8139914633647047</v>
+        <v>0.7787553173608395</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998065427847833</v>
+        <v>0.9505989062229179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00104495461548398</v>
+        <v>0.1680877238077283</v>
       </c>
       <c r="G4" t="n">
-        <v>1.184729749645885</v>
+        <v>1.865374038694769</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6653417501498069</v>
+        <v>0.7913794012964982</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008655621218067148</v>
+        <v>0.1825453878956969</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08114095781916293</v>
+        <v>0.925069038021597</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03232575777122602</v>
+        <v>0.409985028760476</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01606646641855</v>
+        <v>0.9287025123819624</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03283485614222022</v>
+        <v>0.4164418831287827</v>
       </c>
       <c r="N4" t="n">
-        <v>143.7275636493347</v>
+        <v>37.56653854067532</v>
       </c>
       <c r="O4" t="n">
-        <v>285.0627361925511</v>
+        <v>74.53112212890115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_2</t>
+          <t>model_1_47_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997497225319097</v>
+        <v>0.9476507331978282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8227828812039719</v>
+        <v>0.7210408695027579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8143595797505153</v>
+        <v>0.7787209601440535</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998257654601744</v>
+        <v>0.9508728226522573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001041786642541601</v>
+        <v>0.1680561805937882</v>
       </c>
       <c r="G5" t="n">
-        <v>1.185051689398839</v>
+        <v>1.865400990123745</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6640250191823769</v>
+        <v>0.7915022950687958</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007795564399832606</v>
+        <v>0.1815332204106935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0818513889523614</v>
+        <v>0.9288400843045934</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0322767198231419</v>
+        <v>0.4099465582167853</v>
       </c>
       <c r="L5" t="n">
-        <v>1.016017757957776</v>
+        <v>0.9287158920140639</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03278504589547373</v>
+        <v>0.4164028067124854</v>
       </c>
       <c r="N5" t="n">
-        <v>143.7336362285086</v>
+        <v>37.56691389436902</v>
       </c>
       <c r="O5" t="n">
-        <v>285.068808771725</v>
+        <v>74.53149748259484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_4</t>
+          <t>model_1_47_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997481593248699</v>
+        <v>0.9476593884706056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8225828321123099</v>
+        <v>0.7210366411084874</v>
       </c>
       <c r="D6" t="n">
-        <v>0.81345706503771</v>
+        <v>0.7786875217551574</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997831849475998</v>
+        <v>0.9511465938650311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00104829353357733</v>
+        <v>0.1680283946824696</v>
       </c>
       <c r="G6" t="n">
-        <v>1.186389418595925</v>
+        <v>1.865429265415701</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6672532619792719</v>
+        <v>0.7916219022470075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009700692558042223</v>
+        <v>0.1805215895254347</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08205316932591425</v>
+        <v>0.9326705845188971</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03237736143630808</v>
+        <v>0.409912667140782</v>
       </c>
       <c r="L6" t="n">
-        <v>1.016117803208324</v>
+        <v>0.9287276779174204</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03288727251344258</v>
+        <v>0.4163683818859136</v>
       </c>
       <c r="N6" t="n">
-        <v>143.7211832860193</v>
+        <v>37.56724459578678</v>
       </c>
       <c r="O6" t="n">
-        <v>285.0563558292357</v>
+        <v>74.5318281840126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_5</t>
+          <t>model_1_47_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997402297579807</v>
+        <v>0.9476667466133232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8223932702621752</v>
+        <v>0.7210322958102807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8129151187751263</v>
+        <v>0.7786549715506941</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997314981692131</v>
+        <v>0.9514201486123939</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00108130056744816</v>
+        <v>0.1680047729311647</v>
       </c>
       <c r="G7" t="n">
-        <v>1.187657019560628</v>
+        <v>1.865458322444818</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6691917723366837</v>
+        <v>0.7917383324410039</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001201325130750831</v>
+        <v>0.1795107585164417</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08243310244122316</v>
+        <v>0.9365525709305962</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03288313500030311</v>
+        <v>0.4098838529768704</v>
       </c>
       <c r="L7" t="n">
-        <v>1.016625295489234</v>
+        <v>0.9287376975160145</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03340101150548246</v>
+        <v>0.4163391139277239</v>
       </c>
       <c r="N7" t="n">
-        <v>143.6591814664593</v>
+        <v>37.56752577935578</v>
       </c>
       <c r="O7" t="n">
-        <v>284.9943540096757</v>
+        <v>74.5321093675816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_9</t>
+          <t>model_1_47_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997000209034882</v>
+        <v>0.9476728061421672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8219593486805586</v>
+        <v>0.7210277573353073</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8114721204326873</v>
+        <v>0.7786232715029098</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999374963143708</v>
+        <v>0.951693547727935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001248670997722011</v>
+        <v>0.1679853201033427</v>
       </c>
       <c r="G8" t="n">
-        <v>1.190558655174923</v>
+        <v>1.865488671247863</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6743532937377368</v>
+        <v>0.7918517216738536</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002796526492607425</v>
+        <v>0.1785005025933235</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08595522225079992</v>
+        <v>0.940482567477343</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03533653913050924</v>
+        <v>0.4098601226068995</v>
       </c>
       <c r="L8" t="n">
-        <v>1.019198662176755</v>
+        <v>0.928745948789334</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03589305429823496</v>
+        <v>0.4163150098281476</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3713509901806</v>
+        <v>37.56775736746802</v>
       </c>
       <c r="O8" t="n">
-        <v>284.706523533397</v>
+        <v>74.53234095569384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_6</t>
+          <t>model_1_47_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997061662451242</v>
+        <v>0.9476775583928775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8216910853204011</v>
+        <v>0.7210229833394094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8118182433871619</v>
+        <v>0.778592457701012</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99957174707325</v>
+        <v>0.9519665837633102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001223090849101033</v>
+        <v>0.167970064013766</v>
       </c>
       <c r="G9" t="n">
-        <v>1.192352533499535</v>
+        <v>1.865520594980414</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6731152319989431</v>
+        <v>0.7919619408565551</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001916080056939007</v>
+        <v>0.1774915883127617</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08809896868350235</v>
+        <v>0.9444692881672409</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0349727157810347</v>
+        <v>0.4098415108475055</v>
       </c>
       <c r="L9" t="n">
-        <v>1.018805360312051</v>
+        <v>0.9287524199392374</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03552350109469611</v>
+        <v>0.4162961049521482</v>
       </c>
       <c r="N9" t="n">
-        <v>143.4127482824497</v>
+        <v>37.56793901170185</v>
       </c>
       <c r="O9" t="n">
-        <v>284.7479208256661</v>
+        <v>74.53252259992766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_8</t>
+          <t>model_1_47_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996836722908815</v>
+        <v>0.9476808915430077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8215583527094854</v>
+        <v>0.7210179838795956</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8115404568460438</v>
+        <v>0.7785626302514173</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993185841604939</v>
+        <v>0.9522393888511419</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00131672253415368</v>
+        <v>0.1679593636446026</v>
       </c>
       <c r="G10" t="n">
-        <v>1.193240117079906</v>
+        <v>1.865554026391209</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6741088583495338</v>
+        <v>0.7920686319142607</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003048776129724162</v>
+        <v>0.1764835274223923</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08877825017022539</v>
+        <v>0.9485078188096555</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03628667157722902</v>
+        <v>0.4098284563626622</v>
       </c>
       <c r="L10" t="n">
-        <v>1.020244973383583</v>
+        <v>0.9287569586968616</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03685815038120657</v>
+        <v>0.4162828448722183</v>
       </c>
       <c r="N10" t="n">
-        <v>143.2652191172692</v>
+        <v>37.56806642381029</v>
       </c>
       <c r="O10" t="n">
-        <v>284.6003916604856</v>
+        <v>74.53265001203611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_47_7</t>
+          <t>model_1_47_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996680497479458</v>
+        <v>0.9476827938384257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8209229286177669</v>
+        <v>0.721012674219017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8117946832016459</v>
+        <v>0.7785335725258078</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999289214892791</v>
+        <v>0.9525118570673319</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001381751786196061</v>
+        <v>0.1679532567299914</v>
       </c>
       <c r="G11" t="n">
-        <v>1.197489200907086</v>
+        <v>1.865589532115947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6731995054164358</v>
+        <v>0.7921725697139018</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003180179477179664</v>
+        <v>0.1754767113296538</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08603431532484261</v>
+        <v>0.9525995481236462</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03717192201374663</v>
+        <v>0.4098210057207798</v>
       </c>
       <c r="L11" t="n">
-        <v>1.021244816131471</v>
+        <v>0.9287595490565796</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03775734262717356</v>
+        <v>0.4162752768901741</v>
       </c>
       <c r="N11" t="n">
-        <v>143.1688063490921</v>
+        <v>37.56813914408624</v>
       </c>
       <c r="O11" t="n">
-        <v>284.5039788923085</v>
+        <v>74.53272273231207</v>
       </c>
     </row>
   </sheetData>
